--- a/biology/Botanique/Eucalyptus_ovata/Eucalyptus_ovata.xlsx
+++ b/biology/Botanique/Eucalyptus_ovata/Eucalyptus_ovata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus ovata est un arbre de la famille des Myrtaceae très répandu en Australie.
 C'est un arbre petit à moyen rarement un mallee, dont l'écorce qui tombe sur la plus grande du tronc révèle une surface lisse et grise, blanchâtre ou gris-rose. L'écorce est rugueuse à la base des grands arbres. Les feuilles sont pétiolées, lancéolées de 19 à 8,5 cm de long, d'un vert terne. Les fleurs blanches apparaissent à l'automne jusqu'au milieu de l'hiver.
@@ -514,7 +526,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est très répandu depuis l'Île Kangourou, le sud de la chaine du mont Lofty et le sud-est de l'Australie-Méridionale, la Tasmanie et le sud du Victoria et le sud-est de la Nouvelle-Galles du Sud, préférant les vallées et les plaines mal drainées.
 </t>
